--- a/va_facility_data_2025-02-20/Captain James A. Lovell Federal Health Care Center - Facility Data.xlsx"; filename*=UTF-8''Captain%20James%20A.%20Lovell%20Federal%20Health%20Care%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Captain James A. Lovell Federal Health Care Center - Facility Data.xlsx"; filename*=UTF-8''Captain%20James%20A.%20Lovell%20Federal%20Health%20Care%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R18663e42e21544789d043a9c4cae09df"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R1b9f80d24e9e41d2ad67bfd2e7907746"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd75dc2eb2e1c43eba6cb479467002299"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R1995784846134c7a9116452bcc9f9aed"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R998836b2625f4e63917a2fbaeb14ccea"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R50c4c64bbc384a9ba394b086341d6753"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R86d7bdb2cff6488f9c3630f4c711d788"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R0862cd795c934a7db29a927c23924a8a"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R159a77cf5c8140c19d5b177308c19836"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R3a6b672754b6424b97d7a799524cc2a6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R864f8e6697df4ab19567c5bbd8350bea"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R7b1ff4a3e5f4473d9da116176629f9d5"/>
   </x:sheets>
 </x:workbook>
 </file>
